--- a/src/main/java/week4/shops/docs/Магазины и склады.xlsx
+++ b/src/main/java/week4/shops/docs/Магазины и склады.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/18417269/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/18417269/Projects/my/coursera-sport/src/main/java/week4/shops/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A0A821-3BAD-934E-90AD-2633719CE452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00A865D-22B2-EE4C-B4C4-A9ACE94C8B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="2320" windowWidth="28040" windowHeight="17360" xr2:uid="{B9EF8510-BFB9-9544-A4E7-C81D260D8A35}"/>
+    <workbookView xWindow="7040" yWindow="2320" windowWidth="28040" windowHeight="17360" activeTab="1" xr2:uid="{B9EF8510-BFB9-9544-A4E7-C81D260D8A35}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Магазины</t>
   </si>
@@ -136,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +153,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -201,6 +214,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -517,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E83F1D-19B3-3941-809D-3D439856F669}">
   <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1214,4 +1231,398 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59BBE1F-582C-D941-A683-56D45906C2A8}">
+  <dimension ref="A1:V34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9">
+        <v>135</v>
+      </c>
+      <c r="C1" s="10">
+        <v>-478</v>
+      </c>
+      <c r="D1" s="10">
+        <v>-181</v>
+      </c>
+      <c r="E1" s="10">
+        <v>39</v>
+      </c>
+      <c r="F1" s="10">
+        <v>55</v>
+      </c>
+      <c r="G1" s="10">
+        <v>166</v>
+      </c>
+      <c r="H1" s="10">
+        <v>85</v>
+      </c>
+      <c r="I1" s="10">
+        <v>274</v>
+      </c>
+      <c r="J1" s="10">
+        <v>-220</v>
+      </c>
+      <c r="K1" s="10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>-488</v>
+      </c>
+      <c r="C2" s="12">
+        <v>389</v>
+      </c>
+      <c r="D2" s="12">
+        <v>138</v>
+      </c>
+      <c r="E2" s="12">
+        <v>392</v>
+      </c>
+      <c r="F2" s="12">
+        <v>-398</v>
+      </c>
+      <c r="G2" s="12">
+        <v>-38</v>
+      </c>
+      <c r="H2" s="12">
+        <v>16</v>
+      </c>
+      <c r="I2" s="12">
+        <v>72</v>
+      </c>
+      <c r="J2" s="12">
+        <v>-456</v>
+      </c>
+      <c r="K2" s="12">
+        <v>-196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>-488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>135</v>
+      </c>
+      <c r="B5" s="11">
+        <v>-488</v>
+      </c>
+      <c r="D5" s="10">
+        <v>-478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>-478</v>
+      </c>
+      <c r="B6" s="12">
+        <v>389</v>
+      </c>
+      <c r="D6" s="12">
+        <v>-456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>-181</v>
+      </c>
+      <c r="B7" s="12">
+        <v>138</v>
+      </c>
+      <c r="D7" s="12">
+        <v>-398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>39</v>
+      </c>
+      <c r="B8" s="12">
+        <v>392</v>
+      </c>
+      <c r="D8" s="10">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>55</v>
+      </c>
+      <c r="B9" s="12">
+        <v>-398</v>
+      </c>
+      <c r="D9" s="12">
+        <v>-196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>166</v>
+      </c>
+      <c r="B10" s="12">
+        <v>-38</v>
+      </c>
+      <c r="D10" s="10">
+        <v>-181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>85</v>
+      </c>
+      <c r="B11" s="12">
+        <v>16</v>
+      </c>
+      <c r="D11" s="12">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>274</v>
+      </c>
+      <c r="B12" s="12">
+        <v>72</v>
+      </c>
+      <c r="D12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>-220</v>
+      </c>
+      <c r="B13" s="12">
+        <v>-456</v>
+      </c>
+      <c r="D13" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>455</v>
+      </c>
+      <c r="B14" s="12">
+        <v>-196</v>
+      </c>
+      <c r="D14" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D15" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D16" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D17" s="9">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D18" s="12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D19" s="10">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D20" s="10">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D21" s="12">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D22" s="12">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D23" s="10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C27" s="11">
+        <v>-488</v>
+      </c>
+      <c r="D27" s="10">
+        <v>-478</v>
+      </c>
+      <c r="E27" s="12">
+        <v>-456</v>
+      </c>
+      <c r="F27" s="12">
+        <v>-398</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-220</v>
+      </c>
+      <c r="H27" s="12">
+        <v>-196</v>
+      </c>
+      <c r="I27" s="10">
+        <v>-181</v>
+      </c>
+      <c r="J27" s="12">
+        <v>-38</v>
+      </c>
+      <c r="K27" s="12">
+        <v>16</v>
+      </c>
+      <c r="L27" s="10">
+        <v>39</v>
+      </c>
+      <c r="M27" s="10">
+        <v>55</v>
+      </c>
+      <c r="N27" s="12">
+        <v>72</v>
+      </c>
+      <c r="O27" s="10">
+        <v>85</v>
+      </c>
+      <c r="P27" s="9">
+        <v>135</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>138</v>
+      </c>
+      <c r="R27" s="10">
+        <v>166</v>
+      </c>
+      <c r="S27" s="10">
+        <v>274</v>
+      </c>
+      <c r="T27" s="12">
+        <v>389</v>
+      </c>
+      <c r="U27" s="12">
+        <v>392</v>
+      </c>
+      <c r="V27" s="10">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <f>ABS(C27-D27)</f>
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+    </row>
+    <row r="33" spans="19:22" x14ac:dyDescent="0.2">
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+    </row>
+    <row r="34" spans="19:22" x14ac:dyDescent="0.2">
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E5:E24">
+    <sortCondition ref="E5:E24"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/week4/shops/docs/Магазины и склады.xlsx
+++ b/src/main/java/week4/shops/docs/Магазины и склады.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/18417269/Projects/my/coursera-sport/src/main/java/week4/shops/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00A865D-22B2-EE4C-B4C4-A9ACE94C8B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CFC809-B848-B14A-BF28-838EC302C267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7040" yWindow="2320" windowWidth="28040" windowHeight="17360" activeTab="1" xr2:uid="{B9EF8510-BFB9-9544-A4E7-C81D260D8A35}"/>
   </bookViews>
@@ -1235,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59BBE1F-582C-D941-A683-56D45906C2A8}">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E34" sqref="E34:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1611,18 +1611,57 @@
       <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
     </row>
-    <row r="33" spans="19:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:22" x14ac:dyDescent="0.2">
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="19:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E34" s="12">
+        <v>-456</v>
+      </c>
+      <c r="F34" s="12">
+        <v>-398</v>
+      </c>
+      <c r="G34" s="12">
+        <v>-196</v>
+      </c>
+      <c r="H34" s="12">
+        <v>-38</v>
+      </c>
+      <c r="I34" s="12">
+        <v>16</v>
+      </c>
+      <c r="J34" s="12">
+        <v>72</v>
+      </c>
       <c r="U34" s="14"/>
       <c r="V34" s="14"/>
+    </row>
+    <row r="35" spans="5:22" x14ac:dyDescent="0.2">
+      <c r="E35" s="10">
+        <v>-220</v>
+      </c>
+      <c r="F35" s="10">
+        <v>-181</v>
+      </c>
+      <c r="G35" s="10">
+        <v>39</v>
+      </c>
+      <c r="H35" s="10">
+        <v>55</v>
+      </c>
+      <c r="I35" s="10">
+        <v>85</v>
+      </c>
+      <c r="J35" s="9">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E5:E24">
     <sortCondition ref="E5:E24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>